--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1089700.473126053</v>
+        <v>1066838.358788884</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414165</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.885615896</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10392167.78907094</v>
+        <v>11502486.99834478</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>105.1406359466289</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0555388225932</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>353.9370715707835</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.00514188994861</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>334.58170967322</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.553842565068688</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>170.1676215933865</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>143.382768965088</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.176684336810649</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>121.2733567894787</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>150.1033339375744</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2022,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.26790245020096</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.32069823344337</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>78.23263067809552</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>80.7160676450476</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>114.1627038799789</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>10.24879669781202</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02512141542701101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>66.41220336022572</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>111.9187566128681</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.09843453981388</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>2.269068682537848</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>25.0114162562631</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>106.5867442799587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>163.2704070622397</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>164.2540732785636</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>122.7291074462374</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>101.3208278811446</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1577.945354755378</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1208.982837814967</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2359.740251290533</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2105.978465928625</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1774.915578585054</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="X2" t="n">
-        <v>2354.684526795312</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.5451948195</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482878</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5443364482878</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>377.5443364482878</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>208.5445361866202</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1893.689751284806</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1893.689751284806</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1535.424052678055</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1149.635800079811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>738.6498952902036</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.881270927365</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2494.703783241535</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2276.069116213598</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2022.30733085169</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1691.244443508119</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1691.244443508119</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.689751284806</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1546.944160717209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1188.678462110459</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>802.8902095122144</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>391.9043047226068</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>723.5291432316174</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>509.2407200497801</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796265</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>749.8839694216604</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>749.8839694216604</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>364.0957168234162</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.3078929297411</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>476.3717100018342</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D13" t="n">
-        <v>476.3717100018342</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E13" t="n">
-        <v>331.5406302391191</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732712</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297411</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>3319.366746521483</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3113.388998905705</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3113.388998905705</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>2782.326111562134</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>2782.326111562134</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.1638263336251</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C16" t="n">
-        <v>335.2276434057183</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D16" t="n">
-        <v>335.2276434057183</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>335.2276434057183</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>335.2276434057183</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.594421205412</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>906.604870307395</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="Y16" t="n">
-        <v>685.8122911638649</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5521,16 +5521,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1784.466183544591</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5542,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.336921276364</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1591.728233325219</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1591.728233325219</v>
       </c>
       <c r="V19" t="n">
-        <v>1943.184686185112</v>
+        <v>1591.728233325219</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.767516148151</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.777965250134</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.985386106604</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175503</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,7 +5849,7 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.7425750505952</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1913.595286070923</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.206478295169</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.183619024365</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.3910398808349</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5998,10 +5998,10 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6068,40 +6068,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>344.7952525333195</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>344.7952525333195</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>177.0924159080385</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6180,19 +6180,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.767516148151</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.777965250134</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>525.4696810766151</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>378.5797335787047</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>210.8768969534237</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1764.65758193153</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,19 +6466,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>845.0839474760701</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1296.118160724479</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2274.668463554307</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780954</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6496,13 +6496,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3328.51499135249</v>
+        <v>737.3554149786656</v>
       </c>
       <c r="C31" t="n">
-        <v>3328.51499135249</v>
+        <v>568.4192320507588</v>
       </c>
       <c r="D31" t="n">
-        <v>3328.51499135249</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>3328.51499135249</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.51499135249</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.768765573601</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>3985.665898699244</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V31" t="n">
-        <v>3730.981410493358</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W31" t="n">
-        <v>3730.95603532626</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X31" t="n">
-        <v>3730.95603532626</v>
+        <v>958.1479941221958</v>
       </c>
       <c r="Y31" t="n">
-        <v>3510.16345618273</v>
+        <v>737.3554149786656</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,10 +6779,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3328.51499135249</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C34" t="n">
-        <v>3328.51499135249</v>
+        <v>312.7607075579278</v>
       </c>
       <c r="D34" t="n">
-        <v>3328.51499135249</v>
+        <v>162.6440681455921</v>
       </c>
       <c r="E34" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>3328.51499135249</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>3328.51499135249</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>388.668168728447</v>
+        <v>560.358900722199</v>
       </c>
       <c r="C37" t="n">
-        <v>388.668168728447</v>
+        <v>560.358900722199</v>
       </c>
       <c r="D37" t="n">
-        <v>388.668168728447</v>
+        <v>560.358900722199</v>
       </c>
       <c r="E37" t="n">
-        <v>388.668168728447</v>
+        <v>412.4458071398059</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>265.5558596418955</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>97.85302301661446</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>742.0073655524387</v>
       </c>
     </row>
     <row r="38">
@@ -7165,46 +7165,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3623.318032432793</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>3623.318032432793</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.318032432793</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="E40" t="n">
-        <v>3475.4049388504</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.51499135249</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>3623.318032432793</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>3623.318032432793</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>3623.318032432793</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972665</v>
+        <v>722.4071781934679</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807097</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>877.1197344942216</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C43" t="n">
-        <v>708.1835515663147</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1791.423863011532</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799874</v>
+        <v>1502.320996137176</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.473983799874</v>
+        <v>1247.636507931289</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.473983799874</v>
+        <v>958.2193378943285</v>
       </c>
       <c r="X43" t="n">
-        <v>1279.560778467991</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.768199324461</v>
+        <v>730.2297869963112</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600127</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272052</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330834</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660289</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.1255161526738</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C46" t="n">
-        <v>613.1893332247669</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D46" t="n">
-        <v>463.0726938124311</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="E46" t="n">
-        <v>463.0726938124311</v>
+        <v>344.7952525333195</v>
       </c>
       <c r="F46" t="n">
-        <v>463.0726938124311</v>
+        <v>197.9053050354092</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>197.9053050354092</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7839,19 +7839,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230348</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
         <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1412.556111024461</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>1184.566560126444</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.7739809829135</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>229.1543674071817</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>285.662307168233</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,13 +9646,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701126</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>229.1155640189937</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,10 +10126,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>105.1996354507086</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400235</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L44" t="n">
-        <v>241.9338129178238</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.115350019201941</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>59.84709845001146</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>142.1113494150892</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>195.1052701776211</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>3.05119368148118</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.0110774513652</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.75245146954953</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>75.60632145146275</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>137.2810468259682</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>46.61145443660396</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>147.4770247109416</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>64.03894726927318</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>30.59231103434185</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>138.3666763204003</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.497876921164</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>80.02175928634345</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>113.790898776169</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.73354564212342</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.4859462317829</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>119.7435986580577</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>179.9362540566323</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>56.27854221392951</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>61.45558211047359</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.29670081279077</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>43.43418703317619</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755971.6307849309</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755971.630784931</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755971.630784931</v>
+        <v>1047255.490584253</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822662.6452852964</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822662.6452852963</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>977294.0982740736</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>436789.9655756814</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="G2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="H2" t="n">
         <v>436789.9655756816</v>
@@ -26337,25 +26337,25 @@
         <v>436789.9655756815</v>
       </c>
       <c r="J2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="K2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="L2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="M2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="N2" t="n">
+        <v>436789.9655756817</v>
+      </c>
+      <c r="O2" t="n">
         <v>436789.9655756816</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>436789.9655756816</v>
-      </c>
-      <c r="L2" t="n">
-        <v>436789.9655756816</v>
-      </c>
-      <c r="M2" t="n">
-        <v>436789.9655756816</v>
-      </c>
-      <c r="N2" t="n">
-        <v>436789.9655756816</v>
-      </c>
-      <c r="O2" t="n">
-        <v>436789.9655756815</v>
-      </c>
-      <c r="P2" t="n">
-        <v>436789.9655756815</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503536</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091494</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254672</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.13961899011</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>62518.47524617217</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417277.5615067928</v>
+        <v>-422318.4897803297</v>
       </c>
       <c r="C6" t="n">
-        <v>172690.3177077519</v>
+        <v>167649.389434215</v>
       </c>
       <c r="D6" t="n">
-        <v>172690.3177077517</v>
+        <v>167649.3894342149</v>
       </c>
       <c r="E6" t="n">
-        <v>-323060.6990257272</v>
+        <v>-412733.6452486907</v>
       </c>
       <c r="F6" t="n">
-        <v>295899.6169246263</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="G6" t="n">
-        <v>215792.3149660591</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="H6" t="n">
-        <v>315315.7236469743</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="I6" t="n">
-        <v>315315.7236469738</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="J6" t="n">
-        <v>138892.5044543813</v>
+        <v>138220.5495521231</v>
       </c>
       <c r="K6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="L6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447161</v>
       </c>
       <c r="M6" t="n">
-        <v>276162.2408744274</v>
+        <v>185001.4539057715</v>
       </c>
       <c r="N6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="O6" t="n">
-        <v>227932.5840279839</v>
+        <v>314643.7687447162</v>
       </c>
       <c r="P6" t="n">
-        <v>315315.7236469741</v>
+        <v>314643.7687447162</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477373</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026376</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026376</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026376</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>111.3076844110289</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.4732606848631</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.9101662293003</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138803</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35424,16 +35424,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,13 +35661,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35889,19 +35889,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>684.7444817995139</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>837.9641425811443</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36597,28 +36597,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36834,10 +36834,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>566.3068505743942</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,10 +36846,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37308,28 +37308,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340061</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>442.3909220061091</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282428</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L44" t="n">
-        <v>697.5239273101561</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1066838.358788884</v>
+        <v>1085237.625530164</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>7226289.925414164</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>3187716.885615898</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11502486.99834478</v>
+        <v>10392167.78907094</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,19 +712,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>105.1406359466289</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>147.5811180914627</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.00514188994861</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>79.27586724417334</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>137.0779744069684</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>5.732180395782411</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>128.0737137084245</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>17.25588147840211</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.1033339375744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>82.26790245020096</v>
+        <v>67.41386939711265</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.32069823344337</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.36436841812</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>80.7160676450476</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1627038799789</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.4334972246864</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>10.24879669781202</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>72.20407454459885</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>81.4307194532213</v>
       </c>
       <c r="E34" t="n">
-        <v>66.41220336022572</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.269068682537848</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>79.54367350501126</v>
       </c>
     </row>
     <row r="38">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>27.94011541199353</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>25.0114162562631</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>163.2704070622397</v>
+        <v>149.4642351393306</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>101.3208278811446</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>216.127124068774</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2359.740251290533</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2105.978465928625</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1774.915578585054</v>
+        <v>2063.109292044954</v>
       </c>
       <c r="W2" t="n">
-        <v>1422.14692331494</v>
+        <v>2063.109292044954</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1689.643533783874</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.4553696737762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.881270927365</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2494.703783241535</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2276.069116213598</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2022.30733085169</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="V5" t="n">
-        <v>1691.244443508119</v>
+        <v>2385.866280282913</v>
       </c>
       <c r="W5" t="n">
-        <v>1691.244443508119</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.778685247039</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.778685247039</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,31 +4658,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.342874726952</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>3319.815740401309</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>3066.285263675145</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423046</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9043113423046</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9043113423046</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0669121539789</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0669121539789</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>558.0669121539789</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.0669121539789</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,40 +5500,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5703,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1591.728233325219</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.728233325219</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V19" t="n">
-        <v>1591.728233325219</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W19" t="n">
-        <v>1302.311063288258</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X19" t="n">
-        <v>1302.311063288258</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,46 +5737,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5855,10 +5855,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.595286070923</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1721.909401897749</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1500.142786467275</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1211.039919592919</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>956.3554313870318</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>666.9382613500712</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>666.9382613500712</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.1456822065411</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,25 +5995,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157126</v>
+        <v>780.837176703125</v>
       </c>
       <c r="C25" t="n">
-        <v>492.7083461157126</v>
+        <v>611.9009937752181</v>
       </c>
       <c r="D25" t="n">
-        <v>492.7083461157126</v>
+        <v>611.9009937752181</v>
       </c>
       <c r="E25" t="n">
-        <v>344.7952525333195</v>
+        <v>463.987900192825</v>
       </c>
       <c r="F25" t="n">
-        <v>344.7952525333195</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>177.0924159080385</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6177,22 +6177,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>962.4856415333647</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6256,16 +6256,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.3827746590082</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C28" t="n">
-        <v>673.3827746590082</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D28" t="n">
-        <v>673.3827746590082</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E28" t="n">
-        <v>525.4696810766151</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>378.5797335787047</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>210.8768969534237</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6429,7 +6429,7 @@
         <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590082</v>
+        <v>536.5812623108401</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6478,31 +6478,31 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>737.3554149786656</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C31" t="n">
-        <v>568.4192320507588</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.554715057174</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W31" t="n">
-        <v>1186.137545020213</v>
+        <v>1317.128496594963</v>
       </c>
       <c r="X31" t="n">
-        <v>958.1479941221958</v>
+        <v>1089.138945696946</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.3554149786656</v>
+        <v>868.3463665534156</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.6968904858347</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C34" t="n">
-        <v>312.7607075579278</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="D34" t="n">
-        <v>162.6440681455921</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522031</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.358900722199</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C37" t="n">
-        <v>560.358900722199</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D37" t="n">
-        <v>560.358900722199</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>412.4458071398059</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>265.5558596418955</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>97.85302301661446</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7134,13 +7134,13 @@
         <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.789495593986</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>962.7999446959689</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.0073655524387</v>
+        <v>593.0356297044514</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9417306852383</v>
+        <v>590.7492891710236</v>
       </c>
       <c r="C40" t="n">
-        <v>270.9417306852383</v>
+        <v>421.8131062431167</v>
       </c>
       <c r="D40" t="n">
-        <v>120.8250912729026</v>
+        <v>271.696466830781</v>
       </c>
       <c r="E40" t="n">
-        <v>120.8250912729026</v>
+        <v>123.7833732483879</v>
       </c>
       <c r="F40" t="n">
-        <v>120.8250912729026</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>120.8250912729026</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570255</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590082</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.5901955154781</v>
+        <v>590.7492891710236</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7414,22 +7414,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>722.4071781934679</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862918</v>
@@ -7438,25 +7438,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>730.2297869963112</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C43" t="n">
-        <v>561.2936040684043</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D43" t="n">
-        <v>411.1769646560685</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7599,22 +7599,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1791.423863011532</v>
+        <v>1805.369491216491</v>
       </c>
       <c r="U43" t="n">
-        <v>1502.320996137176</v>
+        <v>1516.266624342135</v>
       </c>
       <c r="V43" t="n">
-        <v>1247.636507931289</v>
+        <v>1261.582136136248</v>
       </c>
       <c r="W43" t="n">
-        <v>958.2193378943285</v>
+        <v>972.1649660992872</v>
       </c>
       <c r="X43" t="n">
-        <v>730.2297869963112</v>
+        <v>744.1754152012699</v>
       </c>
       <c r="Y43" t="n">
-        <v>730.2297869963112</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924161</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.7083461157126</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C46" t="n">
-        <v>492.7083461157126</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D46" t="n">
-        <v>492.7083461157126</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
-        <v>344.7952525333195</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>197.9053050354092</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>197.9053050354092</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1516.266624342135</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1261.582136136248</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>972.1649660992872</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>744.1754152012699</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7011105564207</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>105.1996354507086</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561023</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>180.1711403786722</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>171.948300264116</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>249.1599642490852</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>198.1857897438377</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.1991780625831</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>148.7699267806261</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.60632145146275</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>137.2810468259682</v>
+        <v>152.1350798790565</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.61145443660396</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.05667960481129</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>64.03894726927318</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>30.59231103434185</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>83.15115612740837</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>138.3666763204003</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>214.3189237919921</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.18475356499106</v>
       </c>
       <c r="E34" t="n">
-        <v>80.02175928634345</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>142.4859462317829</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>139.0409798470835</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>117.4809326109377</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>119.7435986580577</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>56.27854221392951</v>
+        <v>70.08471413683858</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>43.43418703317619</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>70.08471413683884</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1047255.490584253</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977294.0982740737</v>
+        <v>822662.645285296</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977294.0982740737</v>
+        <v>822662.6452852964</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977294.0982740737</v>
+        <v>977294.0982740738</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>977294.0982740738</v>
+        <v>977294.0982740737</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756814</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
+        <v>375096.8088680128</v>
+      </c>
+      <c r="G2" t="n">
         <v>436789.9655756815</v>
-      </c>
-      <c r="G2" t="n">
-        <v>436789.9655756816</v>
       </c>
       <c r="H2" t="n">
         <v>436789.9655756816</v>
       </c>
       <c r="I2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="K2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="L2" t="n">
         <v>436789.9655756815</v>
@@ -26349,7 +26349,7 @@
         <v>436789.9655756815</v>
       </c>
       <c r="N2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="O2" t="n">
         <v>436789.9655756816</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>618960.3159503536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99523.40868091489</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>39153.48277254663</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>87383.1396189899</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
@@ -26438,7 +26438,7 @@
         <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422318.4897803297</v>
+        <v>-417884.4028813747</v>
       </c>
       <c r="C6" t="n">
-        <v>167649.389434215</v>
+        <v>172083.4763331698</v>
       </c>
       <c r="D6" t="n">
-        <v>167649.3894342149</v>
+        <v>172083.4763331698</v>
       </c>
       <c r="E6" t="n">
-        <v>-412733.6452486907</v>
+        <v>-323408.3179555333</v>
       </c>
       <c r="F6" t="n">
-        <v>314643.7687447161</v>
+        <v>295551.9979948204</v>
       </c>
       <c r="G6" t="n">
-        <v>314643.7687447162</v>
+        <v>215725.1194758333</v>
       </c>
       <c r="H6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567484</v>
       </c>
       <c r="I6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567484</v>
       </c>
       <c r="J6" t="n">
-        <v>138220.5495521231</v>
+        <v>138825.3089641554</v>
       </c>
       <c r="K6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567483</v>
       </c>
       <c r="L6" t="n">
-        <v>314643.7687447161</v>
+        <v>315248.5281567482</v>
       </c>
       <c r="M6" t="n">
-        <v>185001.4539057715</v>
+        <v>276095.0453842016</v>
       </c>
       <c r="N6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567484</v>
       </c>
       <c r="O6" t="n">
-        <v>314643.7687447162</v>
+        <v>227865.3885377585</v>
       </c>
       <c r="P6" t="n">
-        <v>314643.7687447162</v>
+        <v>315248.5281567483</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>363.1114752026374</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026374</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>363.1114752026374</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>111.3076844110289</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.3051017946056</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.4732606848631</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>189.9101662293003</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35424,16 +35424,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>684.4630967757926</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,13 +35661,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36375,7 +36375,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471015</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>442.3909220061091</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>625.2391015115028</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
